--- a/Reports/Recalculation/FullRegisterByLS/RecalculationFullRegisterByLS.xlsx
+++ b/Reports/Recalculation/FullRegisterByLS/RecalculationFullRegisterByLS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$J$1:$N$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$K$1:$O$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>t1</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>$t1['id_LS']</t>
+  </si>
+  <si>
+    <t>Открыт/ закрыт</t>
+  </si>
+  <si>
+    <t>$t1['closed_LS']</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -422,6 +428,12 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -776,83 +788,85 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="14" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="2"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="15" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="J1" s="5"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="1"/>
-      <c r="O1" t="s">
+    <row r="1" spans="1:26">
+      <c r="K1" s="5"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-    </row>
-    <row r="2" spans="1:25" ht="18.75">
-      <c r="A2" s="23" t="s">
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="W2" s="5"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" ht="18.75">
-      <c r="A3" s="25" t="s">
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.75">
+      <c r="A3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="W3" s="5"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" s="6" customFormat="1" ht="25.5">
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" s="6" customFormat="1" ht="25.5">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -875,42 +889,45 @@
         <v>50</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4"/>
+      <c r="Q4" s="1"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" s="4" t="s">
+      <c r="T4"/>
+      <c r="U4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V4"/>
-      <c r="W4" s="5"/>
+      <c r="W4"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75">
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -933,278 +950,283 @@
         <v>51</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>1</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="9"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="6"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="21" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" ht="21" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="9"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" ht="21" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="21" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="K7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="M7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="N7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="O7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>1</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="3"/>
+      <c r="X7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="W8" s="5"/>
+    <row r="8" spans="1:26">
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="W9" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="W10" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="W11" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="W12" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="W13" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="W14" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="W15" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="W16" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="23:25">
-      <c r="W17" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="24:26">
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="23:25">
-      <c r="W18" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="24:26">
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="23:25">
-      <c r="W19" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="24:26">
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="23:25">
-      <c r="W20" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="24:26">
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="23:25">
-      <c r="W21" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="24:26">
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="23:25">
-      <c r="W22" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="24:26">
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="23:25">
-      <c r="W23" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="24:26">
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-    </row>
-    <row r="24" spans="23:25">
-      <c r="W24" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="24:26">
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-    </row>
-    <row r="25" spans="23:25">
-      <c r="W25" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="24:26">
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-    </row>
-    <row r="26" spans="23:25">
-      <c r="W26" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="24:26">
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="23:25">
-      <c r="W27" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="24:26">
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-    </row>
-    <row r="28" spans="23:25">
-      <c r="W28" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="24:26">
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-    </row>
-    <row r="29" spans="23:25">
-      <c r="W29" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="24:26">
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-    </row>
-    <row r="30" spans="23:25">
-      <c r="W30" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="24:26">
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A6:F6"/>
   </mergeCells>
@@ -1212,7 +1234,7 @@
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="1000" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
+    <brk id="15" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
